--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -445,10 +445,10 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="13.8359375"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="104.44140625"/>
-    <col customWidth="true" min="4" max="4" width="13.8359375"/>
-    <col customWidth="true" min="5" max="5" width="68.9921875"/>
-    <col customWidth="true" min="6" max="6" width="13.8359375"/>
+    <col customWidth="true" min="3" max="3" width="74.12109375"/>
+    <col customWidth="true" min="4" max="4" width="49.36328125"/>
+    <col customWidth="true" min="5" max="5" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="83.34765625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -474,51 +474,51 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Link En</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Link De</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Link En</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>L_BB_1</t>
+          <t>L_AGEB_1</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Q_BUNDESBANK</t>
+          <t>Q_AGEB</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Verschuldung gem. Maastricht-Vertrag - Deutschland - Gesamtstaat</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Deficit / surplus and debt level as defined in the Maastricht Treaty/Germany/Debt level/Debt by category/instrument</t>
+          <t>Primary energy consumption (only available in German)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/dynamic/action/de/statistiken/zeitreihen-datenbanken/zeitreihen-datenbank/759778/759778?listId=www_v27_web011_21a</t>
+          <t/>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/dynamic/action/en/statistics/time-series-databases/time-series-databases/743796/743796?treeAnchor=FINANZEN&amp;statisticType=BBK_ITS</t>
+          <t>https://ag-energiebilanzen.de/daten-und-fakten/primaerenergieverbrauch/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>L_BB_2</t>
+          <t>L_BB_1</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -528,285 +528,285 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Studie zur wirtschaftlichen Lage privater Haushalte</t>
+          <t>Verschuldung gem. Maastricht-Vertrag - Deutschland - Gesamtstaat</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Panel on household finances (PHF)</t>
+          <t>Deficit / surplus and debt level as defined in the Maastricht Treaty/Germany/Debt level/Debt by category/instrument</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie</t>
+          <t>https://www.bundesbank.de/dynamic/action/en/statistics/time-series-databases/time-series-databases/743796/743796?treeAnchor=FINANZEN&amp;statisticType=BBK_ITS</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/en/bundesbank/research/panel-on-household-finances</t>
+          <t>https://www.bundesbank.de/dynamic/action/de/statistiken/zeitreihen-datenbanken/zeitreihen-datenbank/759778/759778?listId=www_v27_web011_21a</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>L_BKA_1</t>
+          <t>L_BB_2</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BUNDESBANK</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Polizeiliche Kriminalstatistik</t>
+          <t>Studie zur wirtschaftlichen Lage privater Haushalte</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Police Crime Statistics</t>
+          <t>Panel on household finances (PHF)</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
+          <t>https://www.bundesbank.de/en/bundesbank/research/panel-on-household-finances</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/CurrentInformation/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
+          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>L_BMEL_1</t>
+          <t>L_BKA_1</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffbilanzen und Düngemittel</t>
+          <t>Polizeiliche Kriminalstatistik</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Nutrient balances and fertilizers (only available in German)</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
+          <t>https://www.bka.de/EN/CurrentInformation/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
+          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>L_BMEL_2</t>
+          <t>L_BMDV_1</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Betriebe und Flächen des ökologischen Landbaus in Deutschland</t>
+          <t>Breitbandatlas</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Agricultural holdings total and holdings with organic farming</t>
+          <t> Broadband Atlas (only available in German)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
+          <t/>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/Telekommunikation/Breitband/breitbandatlas/start.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMEL_1</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Nährstoffbilanzen und Düngemittel (Tabelle MBT-0111260-0000)</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Nutrient balances and fertilizers (table MBT-0111260-0000; only available in German)</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_1</t>
+          <t>L_BMEL_2</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Verdienstunterschiede</t>
+          <t>Betriebe und Flächen des ökologischen Landbaus in Deutschland</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Earnings differences</t>
+          <t>Agricultural holdings total and holdings with organic farming</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/_inhalt.html</t>
+          <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/_node.html</t>
+          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Statistik zum Elterngeld</t>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Statistics on parental allowance</t>
+          <t>Facts and figures of German development cooperation</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Elterngeld/_inhalt.html#sprg234622</t>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Social-Statistics/Parental-Allowance/_node.html</t>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Einnahmen und Ausgaben des Staates in der Abgrenzung für das Defizitverfahren</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Publications/Domestic Product - First annual results</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Wirtschaft/Volkswirtschaftliche-Gesamtrechnungen-Inlandsprodukt/Tabellen/eu-stabilitaetspakt-defizit-staat.html</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Economy/National-Accounts-Domestic-Product/_node.html#sprg241174</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Internal expenses and personnel for research and development (only available in German)</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1628839743715</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-silc.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-silc.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_6</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -848,29 +848,29 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t/>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/HousingCosts.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -880,29 +880,29 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt)</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>National Accounts of the Federal Government - Gross Fixed Capital Formation (nominal/price-adjusted; only available in German)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t/>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -912,29 +912,30 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Gebietsstand</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt
+(nominal/preisbereinigt)</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap by territory</t>
+          <t>National Accounts of the Federal Government - Gross Value Added, Gross Domestic Product (nominal/price-adjusted)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/_inhalt.html#sprg234956</t>
+          <t/>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/_node.html#sprg266370</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -944,349 +945,350 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung</t>
+          <t>Durchschnittliche Bevölkerung</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Internal expenses and personnel for research and development (only available in German)</t>
+          <t>Average population</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0040</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t/>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Absolventen und Abgänger: Deutschland</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Germany</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Aus- und Einfuhr (Außenhandel)</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Exports and imports (foreign trade)</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660741526662</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen (Renten von den Sozialleistungen ausgeschlossen) - EU-SILC Erhebung</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers (pensions excluded from social transfers)</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=de</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=en</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html;jsessionid=4C35A0581F102A142D9A37D91CA00EBB.live721</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten nach Alter, Geschlecht und Armutsgefährdung - EU-SILC Erhebung</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate by age, sex and poverty status - EU-SILC survey</t>
+          <t>National accounts - Gross value added, gross domestic
+product</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Väterbeteiligung</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/oceans-and-fisheries/fisheries/scientific-input/scientific-advice-and-data-collection_de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/oceans-and-fisheries/fisheries/scientific-input/scientific-advice-and-data-collection_en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung</t>
+          <t>Absolventen und Abgänger: Bundesländer</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>School leavers (graduates and dropouts): Länder</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t/>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t/>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1296,502 +1298,1238 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Mortalität und Todesursachen</t>
+          <t>Einnahmen und Ausgaben des Staates in der Abgrenzung für das Defizitverfahren</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Causes of Death </t>
+          <t>Publications/Domestic Product - First annual results</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=0&amp;levelid=1660821702206</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>hhttps://www-genesis.destatis.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1660821596823&amp;acceptscookies=false</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund)</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>Research and development expenditure and staff (Germany)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256#abreadcrumb</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362#abreadcrumb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_1</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php?indikator=25&amp;aufzu=3&amp;mode=indi</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php?indikator=25&amp;aufzu=3&amp;mode=indi</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php?indikator=8&amp;aufzu=4&amp;mode=indi</t>
+          <t>hhttps://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>https://www.lanuv.nrw.de/liki/index.php?indikator=8&amp;aufzu=4&amp;mode=indi</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Datenquelle)</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder)</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on data source - only available in German)</t>
+          <t>Research and development expenditure and staff (Länder)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747#abreadcrumb</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256#abreadcrumb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Datenquelle)</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on data source - only available in German)</t>
+          <t>Development of renewable energies in Germany</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen (Renten von den Sozialleistungen ausgeschlossen) - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers (pensions excluded from social transfers)</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=en</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=de</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Quote der Überbelastung durch Wohnkosten nach Alter, Geschlecht und Armutsgefährdung - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Housing cost overburden rate by age, sex and poverty status - EU-SILC survey</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=en</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=de</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Rate der materiellen und sozialen Deprivation</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Material and social deprivation rate</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
+          <t>L_ERSTT_8</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Rate der erheblichen materiellen Deprivation</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Severe material deprivation rate</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_9</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich)</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Population by educational attainment level (tertiary education only)</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>L_EZB_1</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Q_EZB</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Household Finance and Consumption Network (HFCN)</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Household Finance and Consumption Network (HFCN)</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>L_FIDAR_1</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Q_FIDAR</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Studie zum WoB-Index</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Study on the WoB Index (only available in German)</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>L_GBE_1</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Mortalität und Todesursachen</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Causes of Death </t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>L_GIZ_1</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Q_GIZ</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Members of the Partnership for Sustainable Textiles</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>https://www.textilbuendnis.com/en/das-buendnis-2/</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>https://www.textilbuendnis.com/das-buendnis-2/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>L_LAK_1</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Energieindikatoren allgemein</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Energy indicators general (only available in German)</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>L_LAK_2</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>L_LAK_3</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>L_LANUV_2</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Q_LIKI</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Flächenverbrauch</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Land consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>L_LIKI_1</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Q_LIKI</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater (only available in German)</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>L_OECD_1</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Q_OECD</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>OECD - Total flows by donor</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_1</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_2</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_3</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Treibhausgasemissionen </t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas emissions (only available in German)</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_4</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquoten</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Employment rates (only available in German)</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>L_TI_1</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Q_TA</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_1</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Index der Luftschadstoff-Emissionen</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Index of air pollutant emissions</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_2</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_3</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_4</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_5</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_6</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_7</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2533,6 +2533,38 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_10</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>Severe material and social deprivation rate</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -447,8 +447,8 @@
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="74.12109375"/>
     <col customWidth="true" min="4" max="4" width="49.36328125"/>
-    <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="83.34765625"/>
+    <col customWidth="true" min="5" max="5" width="74.4140625"/>
+    <col customWidth="true" min="6" max="6" width="-113.32421875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660741526662</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660741526662&amp;language=en</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html;jsessionid=4C35A0581F102A142D9A37D91CA00EBB.live721</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
     </row>
@@ -1148,12 +1148,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=0&amp;levelid=1660821702206</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=0&amp;levelid=1660821702206&amp;language=en</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>hhttps://www-genesis.destatis.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1660821596823&amp;acceptscookies=false</t>
+          <t>hhttps://www-genesis.destatis.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1660821596823&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,44 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>L_SVWS</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Q_SVWS</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>Research and development in the economy (only available in German)</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -447,8 +447,8 @@
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="74.12109375"/>
     <col customWidth="true" min="4" max="4" width="49.36328125"/>
-    <col customWidth="true" min="5" max="5" width="74.4140625"/>
-    <col customWidth="true" min="6" max="6" width="-113.32421875"/>
+    <col customWidth="true" min="5" max="5" width="-113.32421875"/>
+    <col customWidth="true" min="6" max="6" width="74.4140625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -474,12 +474,12 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Link De</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Link En</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Link De</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
+          <t>https://ag-energiebilanzen.de/daten-und-fakten/primaerenergieverbrauch/</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>https://ag-energiebilanzen.de/daten-und-fakten/primaerenergieverbrauch/</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
+          <t>https://www.bundesbank.de/dynamic/action/de/statistiken/zeitreihen-datenbanken/zeitreihen-datenbank/759778/759778?listId=www_v27_web011_21a</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
           <t>https://www.bundesbank.de/dynamic/action/en/statistics/time-series-databases/time-series-databases/743796/743796?treeAnchor=FINANZEN&amp;statisticType=BBK_ITS</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bundesbank.de/dynamic/action/de/statistiken/zeitreihen-datenbanken/zeitreihen-datenbank/759778/759778?listId=www_v27_web011_21a</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>https://www.bundesbank.de/en/bundesbank/research/panel-on-household-finances</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
+          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
           <t>https://www.bka.de/EN/CurrentInformation/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/Telekommunikation/Breitband/breitbandatlas/start.html</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/Telekommunikation/Breitband/breitbandatlas/start.html</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
+          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
           <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
         </is>
       </c>
     </row>
@@ -730,115 +730,115 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
           <t>https://www.bmz.de/en/ministry/facts-figures</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Elmau Progress Report 2022</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -848,29 +848,29 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -880,94 +880,94 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt)</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>National Accounts of the Federal Government - Gross Fixed Capital Formation (nominal/price-adjusted; only available in German)</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_12</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt)</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>National Accounts of the Federal Government - Gross Fixed Capital Formation (nominal/price-adjusted; only available in German)</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
           <t>L_DSTTS_13</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt
 (nominal/preisbereinigt)</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>National Accounts of the Federal Government - Gross Value Added, Gross Domestic Product (nominal/price-adjusted)</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t/>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_14</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Durchschnittliche Bevölkerung</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Average population</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0040</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -977,29 +977,29 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0040</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1009,29 +1009,29 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1041,29 +1041,29 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1073,29 +1073,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel)</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade)</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660741526662&amp;language=en</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;language=de</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1105,94 +1105,94 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel)</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade)</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;language=de</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660741526662&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_19</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
           <t>L_DSTTS_2</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>National accounts - Gross value added, gross domestic
 product</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_20</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Väterbeteiligung</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Participation rate of fathers</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1202,29 +1202,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer</t>
+          <t>Väterbeteiligung</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1234,29 +1234,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1266,29 +1266,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1298,29 +1298,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Einnahmen und Ausgaben des Staates in der Abgrenzung für das Defizitverfahren</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Publications/Domestic Product - First annual results</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=0&amp;levelid=1660821702206&amp;language=en</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>hhttps://www-genesis.destatis.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1660821596823&amp;language=de</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1330,29 +1330,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund)</t>
+          <t>Einnahmen und Ausgaben des Staates in der Abgrenzung für das Defizitverfahren</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany)</t>
+          <t>Publications/Domestic Product - First annual results</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1362,29 +1362,29 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund)</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Research and development expenditure and staff (Germany)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1394,29 +1394,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1426,29 +1426,29 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>hhttps://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1458,125 +1458,125 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder)</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder)</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder)</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany</t>
+          <t>Research and development expenditure and staff (Länder)</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Development of renewable energies in Germany</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1586,29 +1586,29 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1618,29 +1618,29 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen (Renten von den Sozialleistungen ausgeschlossen) - EU-SILC Erhebung</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers (pensions excluded from social transfers)</t>
+          <t>Severe material and social deprivation rate</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1650,29 +1650,29 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten nach Alter, Geschlecht und Armutsgefährdung - EU-SILC Erhebung</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate by age, sex and poverty status - EU-SILC survey</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=en</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=de</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1682,29 +1682,29 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen (Renten von den Sozialleistungen ausgeschlossen) - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers (pensions excluded from social transfers)</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=de</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1714,29 +1714,29 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung</t>
+          <t>Quote der Überbelastung durch Wohnkosten nach Alter, Geschlecht und Armutsgefährdung - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Housing cost overburden rate by age, sex and poverty status - EU-SILC survey</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=de</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1746,29 +1746,29 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation</t>
+          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t/>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1810,221 +1810,221 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich)</t>
+          <t>Rate der materiellen und sozialen Deprivation</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only)</t>
+          <t>Material and social deprivation rate</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Rate der erheblichen materiellen Deprivation</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Severe material deprivation rate</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich)</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Population by educational attainment level (tertiary education only)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Mortalität und Todesursachen</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Causes of Death </t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/das-buendnis-2/</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/das-buendnis-2/</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Mortalität und Todesursachen</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>Causes of Death </t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2034,113 +2034,113 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
@@ -2152,71 +2152,71 @@
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t/>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2226,29 +2226,29 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2258,157 +2258,157 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2418,29 +2418,29 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2450,29 +2450,29 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2482,29 +2482,29 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2514,86 +2514,118 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -944,8 +944,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt
-(nominal/preisbereinigt)</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt)</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1174,8 +1173,7 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic
-product</t>
+          <t>National accounts - Gross value added, gross domestic product</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1682,22 +1680,22 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen (Renten von den Sozialleistungen ausgeschlossen) - EU-SILC Erhebung</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers (pensions excluded from social transfers)</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_di12c/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
@@ -2626,6 +2624,230 @@
       <c r="F68" s="4" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_1</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Bevölkerung</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>Population (only available in German)</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_2</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsfläche</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>Settlement area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_3</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>Transport area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>L_IFEU_1</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Q_IFEU</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>TREMOD</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>TREMOD</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_11</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>Quote der Überbelastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overburden rate</t>
+        </is>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_24</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Überbelastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overburden</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_25</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Umweltökonomische Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Environmental Economic Accounting</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -446,7 +446,7 @@
     <col customWidth="true" min="1" max="1" width="13.8359375"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="74.12109375"/>
-    <col customWidth="true" min="4" max="4" width="49.36328125"/>
+    <col customWidth="true" min="4" max="4" width="101.66015625"/>
     <col customWidth="true" min="5" max="5" width="-113.32421875"/>
     <col customWidth="true" min="6" max="6" width="74.4140625"/>
   </cols>
@@ -885,7 +885,7 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -912,22 +912,22 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt)</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>National Accounts of the Federal Government - Gross Fixed Capital Formation (nominal/price-adjusted; only available in German)</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
@@ -944,22 +944,22 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt)</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>National Accounts of the Federal Government - Gross Value Added, Gross Domestic Product (nominal/price-adjusted)</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
@@ -976,22 +976,22 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Average population</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0040</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel)</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade)</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 51000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -1328,12 +1328,14 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Einnahmen und Ausgaben des Staates in der Abgrenzung für das Defizitverfahren</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie – GENESIS online 81000-0031
+Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Publications/Domestic Product - First annual results</t>
+          <t>National accounts - Revenue, expenditure, net lending/net – GENESIS online 81000-0031
+borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -1360,12 +1362,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund)</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1488,12 +1490,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder)</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder)</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1616,12 +1618,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1680,12 +1682,12 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -1702,7 +1704,7 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1712,29 +1714,29 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten nach Alter, Geschlecht und Armutsgefährdung - EU-SILC Erhebung</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate by age, sex and poverty status - EU-SILC survey</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=de</t>
+          <t/>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho07a/default/table?lang=en</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1744,29 +1746,29 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1776,29 +1778,29 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1808,29 +1810,29 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1840,189 +1842,189 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Mortalität und Todesursachen</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Causes of Death </t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Mortalität und Todesursachen</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Causes of Death </t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2032,29 +2034,29 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2064,61 +2066,61 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2128,17 +2130,17 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
@@ -2150,71 +2152,71 @@
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t/>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2224,29 +2226,29 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2256,29 +2258,29 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2288,49 +2290,49 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
@@ -2342,71 +2344,71 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2416,29 +2418,29 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2448,29 +2450,29 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2480,29 +2482,29 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2512,29 +2514,29 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -2544,29 +2546,29 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_7</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -2576,61 +2578,61 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -2640,17 +2642,17 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
@@ -2662,7 +2664,7 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -2672,17 +2674,17 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
@@ -2694,103 +2696,103 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2800,54 +2802,54 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Environmental Economic Accounting</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Area under organic farming</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -1318,105 +1318,105 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_24</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Überbelastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overburden</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_25</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Umweltökonomische Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Environmental Economic Accounting</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
           <t>L_DSTTS_3</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>VGR des Bundes - Einnahmen und Ausgaben sowie – GENESIS online 81000-0031
 Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>National accounts - Revenue, expenditure, net lending/net – GENESIS online 81000-0031
 borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_4</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_5</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>Income distribution (equivalised net income)</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1426,29 +1426,29 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1458,29 +1458,29 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1490,157 +1490,157 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>Development of renewable energies in Germany</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1650,29 +1650,29 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1682,29 +1682,29 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1714,29 +1714,29 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1746,29 +1746,29 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>Area under organic farming</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1810,29 +1810,29 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1842,465 +1842,465 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t/>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Mortalität und Todesursachen</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Causes of Death </t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Mortalität und Todesursachen</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Causes of Death </t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -2312,544 +2312,544 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t/>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nur auf Englisch verfügbar)</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_UBA_7</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -582,103 +582,103 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>L_BKA_1</t>
+          <t>L_BFN_1</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Q_BKA</t>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Polizeiliche Kriminalstatistik</t>
+          <t>Indikator „Artenvielfalt und Landschaftsqualität“</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Police Crime Statistics</t>
+          <t>„Biodiversity and landscape quality“ indicator (only available in German)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
+          <t>https://www.bfn.de/indikator-artenvielfalt-und-landschaftsqualitaet</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/CurrentInformation/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>L_BMDV_1</t>
+          <t>L_BKA_1</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>Q_BKA</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Breitbandatlas</t>
+          <t>Polizeiliche Kriminalstatistik</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t> Broadband Atlas (only available in German)</t>
+          <t>Police Crime Statistics</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/Telekommunikation/Breitband/breitbandatlas/start.html</t>
+          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bka.de/EN/CurrentInformation/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>L_BMEL_1</t>
+          <t>L_BMDV_1</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffbilanzen und Düngemittel (Tabelle MBT-0111260-0000)</t>
+          <t>Breitbandatlas</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Nutrient balances and fertilizers (table MBT-0111260-0000; only available in German)</t>
+          <t> Broadband Atlas (only available in German)</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/Telekommunikation/Breitband/breitbandatlas/start.html</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>L_BMEL_2</t>
+          <t>L_BMEL_1</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -688,61 +688,61 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Betriebe und Flächen des ökologischen Landbaus in Deutschland</t>
+          <t>Nährstoffbilanzen und Düngemittel (Tabelle MBT-0111260-0000)</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Agricultural holdings total and holdings with organic farming</t>
+          <t>Nutrient balances and fertilizers (table MBT-0111260-0000; only available in German)</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
+          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
+          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_1</t>
+          <t>L_BMEL_2</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
+          <t>Betriebe und Flächen des ökologischen Landbaus in Deutschland</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Facts and figures of German development cooperation</t>
+          <t>Agricultural holdings total and holdings with organic farming</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en/ministry/facts-figures</t>
+          <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_2</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -752,125 +752,125 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022</t>
+          <t>Facts and figures of German development cooperation</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Elmau Progress Report 2022</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -880,29 +880,29 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -912,29 +912,29 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -944,29 +944,29 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -976,29 +976,29 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1008,29 +1008,29 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1040,29 +1040,29 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1072,29 +1072,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1104,29 +1104,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 51000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660741526662&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1136,29 +1136,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1168,29 +1168,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1200,29 +1200,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1232,29 +1232,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1264,29 +1264,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1296,17 +1296,17 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1328,29 +1328,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1360,95 +1360,95 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_25</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Umweltökonomische Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Environmental Economic Accounting</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
           <t>L_DSTTS_3</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>VGR des Bundes - Einnahmen und Ausgaben sowie – GENESIS online 81000-0031
 Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>National accounts - Revenue, expenditure, net lending/net – GENESIS online 81000-0031
 borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_4</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1458,29 +1458,29 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1490,29 +1490,29 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1522,29 +1522,29 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1554,125 +1554,125 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Development of renewable energies in Germany</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1682,29 +1682,29 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1714,29 +1714,29 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1746,29 +1746,29 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Area under organic farming</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1810,29 +1810,29 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t/>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1906,29 +1906,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1938,29 +1938,29 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1970,221 +1970,221 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Mortalität und Todesursachen</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Causes of Death </t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=D&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe10/trecherche.prc_them_rech?tk=3600&amp;tk2=3800&amp;p_uid=gast&amp;p_aid=29536649&amp;p_sprache=E&amp;cnt_ut=7&amp;ut=3900</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=52889592&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_indsp=3194&amp;p_ityp=H&amp;p_fid=</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=80721089&amp;p_sprache=E&amp;p_help=2&amp;p_indnr=562&amp;p_version=1&amp;p_ansnr=95662760</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -2194,29 +2194,29 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2226,61 +2226,61 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -2312,71 +2312,71 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2386,17 +2386,17 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
@@ -2408,7 +2408,7 @@
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2418,17 +2418,17 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
@@ -2440,39 +2440,39 @@
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2482,29 +2482,29 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2514,29 +2514,29 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -2546,49 +2546,49 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
@@ -2600,135 +2600,135 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -2738,29 +2738,29 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -2770,29 +2770,29 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2802,54 +2802,118 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_6</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_7</t>
         </is>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
+      <c r="C76" s="4" t="inlineStr">
         <is>
           <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
         </is>
       </c>
-      <c r="D75" s="4" t="inlineStr">
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr">
+      <c r="E76" s="4" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
         </is>
       </c>
-      <c r="F75" s="4" t="inlineStr">
+      <c r="F76" s="4" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>L_BMEL_3</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMEL</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau in Deutschland</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>Organic farming in Germany (only available in German)</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/SharedDocs/Downloads/DE/Broschueren/OekolandbauDeutschland.pdf?__blob=publicationFile&amp;v=14</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -742,39 +742,39 @@
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_1</t>
+          <t>L_BMEL_3</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
+          <t>Ökologischer Landbau in Deutschland</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Facts and figures of German development cooperation</t>
+          <t>Organic farming in Germany (only available in German)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+          <t>https://www.bmel.de/SharedDocs/Downloads/DE/Broschueren/OekolandbauDeutschland.pdf?__blob=publicationFile&amp;v=14</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en/ministry/facts-figures</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_2</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -784,125 +784,125 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022</t>
+          <t>Facts and figures of German development cooperation</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Elmau Progress Report 2022</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -912,29 +912,29 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -944,29 +944,29 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -976,29 +976,29 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1008,29 +1008,29 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1040,29 +1040,29 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1072,29 +1072,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1104,29 +1104,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1136,29 +1136,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1168,29 +1168,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1200,29 +1200,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1232,29 +1232,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1264,29 +1264,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1296,29 +1296,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -1350,7 +1350,7 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1360,29 +1360,29 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1392,127 +1392,127 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_25</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Umweltökonomische Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Environmental Economic Accounting</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_27</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Raw material input productivity and ist components</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
           <t>L_DSTTS_3</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>VGR des Bundes - Einnahmen und Ausgaben sowie – GENESIS online 81000-0031
 Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>National accounts - Revenue, expenditure, net lending/net – GENESIS online 81000-0031
 borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_4</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>L_DSTTS_5</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>Income distribution (equivalised net income)</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1522,29 +1522,29 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1554,29 +1554,29 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1586,157 +1586,157 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>Development of renewable energies in Germany</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1746,29 +1746,29 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1810,29 +1810,29 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Area under organic farming</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1906,29 +1906,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1938,29 +1938,29 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t/>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1970,29 +1970,29 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2002,253 +2002,253 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=52889592&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_indsp=3194&amp;p_ityp=H&amp;p_fid=</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=80721089&amp;p_sprache=E&amp;p_help=2&amp;p_indnr=562&amp;p_version=1&amp;p_ansnr=95662760</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=52889592&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_indsp=3194&amp;p_ityp=H&amp;p_fid=</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=80721089&amp;p_sprache=E&amp;p_help=2&amp;p_indnr=562&amp;p_version=1&amp;p_ansnr=95662760</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2258,145 +2258,145 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
@@ -2408,39 +2408,39 @@
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2450,17 +2450,17 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
@@ -2472,71 +2472,71 @@
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -2546,29 +2546,29 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -2578,157 +2578,157 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -2738,61 +2738,61 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2802,29 +2802,29 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2834,29 +2834,29 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -2866,54 +2866,86 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_BMEL_3</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_BMEL</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Ökologischer Landbau in Deutschland</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Organic farming in Germany (only available in German)</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>https://www.bmel.de/SharedDocs/Downloads/DE/Broschueren/OekolandbauDeutschland.pdf?__blob=publicationFile&amp;v=14</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -1488,14 +1488,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Einnahmen und Ausgaben sowie – GENESIS online 81000-0031
-Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Revenue, expenditure, net lending/net – GENESIS online 81000-0031
-borrowing of general government – GENESIS online 81000-0031</t>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -1210,12 +1210,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-02-by-laender-at2014.html</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-Verdienstunterschiede/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Labour/Earnings/Earnings-Earnings-Differences/Tables/ugpg-01-by-territory-gpg.html</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>https://www.bka.de/EN/CurrentInformation/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
+          <t>https://www.bka.de/EN/CurrentInformation/Statistics/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/Telekommunikation/Breitband/breitbandatlas/start.html</t>
+          <t>https://www.bundesnetzagentur.de/GIGA/DE/Breitbandatlas/start.html</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2947,6 +2947,38 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_4</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>(Severe) Material deprivation rate</t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -1882,12 +1882,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=lfsa_ergan&amp;lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
@@ -1926,71 +1926,71 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>(Severe) Material deprivation rate</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t/>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2000,29 +2000,29 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2032,29 +2032,29 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2064,221 +2064,221 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=52889592&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_indsp=3194&amp;p_ityp=H&amp;p_fid=</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=80721089&amp;p_sprache=E&amp;p_help=2&amp;p_indnr=562&amp;p_version=1&amp;p_ansnr=95662760</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=52889592&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_indsp=3194&amp;p_ityp=H&amp;p_fid=</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=80721089&amp;p_sprache=E&amp;p_help=2&amp;p_indnr=562&amp;p_version=1&amp;p_ansnr=95662760</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2288,29 +2288,29 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -2320,61 +2320,61 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
@@ -2406,71 +2406,71 @@
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
@@ -2534,39 +2534,39 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -2576,29 +2576,29 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -2608,29 +2608,29 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -2640,49 +2640,49 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
@@ -2694,135 +2694,135 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2832,29 +2832,29 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -2864,118 +2864,118 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_UBA_7</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie</t>
+          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie/ergebnisse</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -44,6 +44,11 @@
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,6 +67,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -119,6 +130,20 @@
         <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -138,6 +163,10 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -435,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,7 +472,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
+    <col customWidth="true" min="1" max="1" width="18.45703125"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="74.12109375"/>
     <col customWidth="true" min="4" max="4" width="101.66015625"/>
@@ -504,12 +533,12 @@
           <t>Primary energy consumption (only available in German)</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>https://ag-energiebilanzen.de/daten-und-fakten/primaerenergieverbrauch/</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -536,12 +565,12 @@
           <t>Deficit / surplus and debt level as defined in the Maastricht Treaty/Germany/Debt level/Debt by category/instrument</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>https://www.bundesbank.de/dynamic/action/de/statistiken/zeitreihen-datenbanken/zeitreihen-datenbank/759778/759778?listId=www_v27_web011_21a</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>https://www.bundesbank.de/dynamic/action/en/statistics/time-series-databases/time-series-databases/743796/743796?treeAnchor=FINANZEN&amp;statisticType=BBK_ITS</t>
         </is>
@@ -568,12 +597,12 @@
           <t>Panel on household finances (PHF)</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie/ergebnisse</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>https://www.bundesbank.de/en/bundesbank/research/panel-on-household-finances</t>
         </is>
@@ -600,12 +629,12 @@
           <t>„Biodiversity and landscape quality“ indicator (only available in German)</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>https://www.bfn.de/indikator-artenvielfalt-und-landschaftsqualitaet</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -632,12 +661,12 @@
           <t>Police Crime Statistics</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>https://www.bka.de/EN/CurrentInformation/Statistics/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
         </is>
@@ -664,12 +693,12 @@
           <t> Broadband Atlas (only available in German)</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>https://www.bundesnetzagentur.de/GIGA/DE/Breitbandatlas/start.html</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -696,12 +725,12 @@
           <t>Nutrient balances and fertilizers (table MBT-0111260-0000; only available in German)</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
         </is>
@@ -728,12 +757,12 @@
           <t>Agricultural holdings total and holdings with organic farming</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
         </is>
@@ -760,12 +789,12 @@
           <t>Organic farming in Germany (only available in German)</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>https://www.bmel.de/SharedDocs/Downloads/DE/Broschueren/OekolandbauDeutschland.pdf?__blob=publicationFile&amp;v=14</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -774,39 +803,39 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_1</t>
+          <t>L_BMWK_1</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Facts and figures of German development cooperation</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/en/ministry/facts-figures</t>
+          <t>Development of renewable energies in Germany (only available in German)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_2</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -816,125 +845,125 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
+          <t>Facts and figures of German development cooperation</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>Elmau Progress Report 2022</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Addiction Prevention (only available in German)</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>Climate financing</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -944,29 +973,29 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>International education indicators in country comparison (only available in German)</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -976,29 +1005,29 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1008,29 +1037,29 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1040,29 +1069,29 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1072,29 +1101,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Average population – GENESIS online 12411-0040</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1104,29 +1133,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1136,29 +1165,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1168,29 +1197,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+          <t>Development cooperation</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1200,29 +1229,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1232,29 +1261,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1264,29 +1293,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1296,29 +1325,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>Participation rate of fathers</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1328,29 +1357,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1360,20 +1389,20 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
+          <t>Increase in settlement and transport area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1382,7 +1411,7 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1392,29 +1421,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t>Child day care statistics maps (only available in German)</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1424,29 +1453,29 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>Housing cost overburden</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_27</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1456,29 +1485,29 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity and ist components</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+          <t>Environmental Economic Accounting</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_DSTTS_27</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1488,29 +1517,29 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>Raw material input productivity and ist components</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_28</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1520,29 +1549,29 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_29</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1552,29 +1581,29 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Schulen</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>Schools</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1584,29 +1613,29 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/_inhalt.html#sprg239572</t>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_30</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1616,20 +1645,20 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
+          <t>Settlement area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1638,7 +1667,7 @@
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_31</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1648,349 +1677,349 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t>Transportation area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_32</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>Population (only available in German)</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_DSTTS_33</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>https://www.emas.de/statistiken/</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_DSTTS_34</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>Income distribution (equivalised net income)</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+          <t>Unadjusted gender pay gap</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>EMAS statistics (only available in German)</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>https://www.emas.de/statistiken/</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2000,29 +2029,29 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>Eurostat database</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2032,29 +2061,29 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2064,29 +2093,29 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -2096,381 +2125,381 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>Area under organic farming</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_13</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>Treatable and preventable mortality of residents</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
-        </is>
-      </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>Employment rates by sex, age and citizenship</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=52889592&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_indsp=3194&amp;p_ityp=H&amp;p_fid=</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>https://www.gbe-bund.de/gbe/pkg_isgbe5.prc_menu_olap?p_uid=gast&amp;p_aid=80721089&amp;p_sprache=E&amp;p_help=2&amp;p_indnr=562&amp;p_version=1&amp;p_ansnr=95662760</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>(Severe) Material deprivation rate</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>STECF - Reports</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
-        </is>
-      </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
-        </is>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
-        </is>
-      </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Household Finance and Consumption Network (HFCN)</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
-        </is>
-      </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+          <t>Study on the WoB Index (only available in German)</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2480,212 +2509,212 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Premature mortality</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
-        </is>
-      </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>Members of the Partnership for Sustainable Textiles</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
-        </is>
-      </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>TREMOD</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
-        </is>
-      </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
-        </is>
-      </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>Energy indicators general (only available in German)</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
-        </is>
-      </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
-        </is>
-      </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
-        </is>
-      </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
+          <t>Land consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2694,30 +2723,30 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
-        </is>
-      </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
+          <t>Nitrate in groundwater (only available in German)</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2726,256 +2755,640 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
-        </is>
-      </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>OECD - Total flows by donor</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
-        </is>
-      </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>Income distribution database</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Eingänge nach Ländern und Regionen (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
-        </is>
-      </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>Receipts by country and region</t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>https://data-explorer.oecd.org/vis?lc=en&amp;df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC2%40DF_RECPTS&amp;df[ag]=OECD.DCD.FSD&amp;pd=2013%2C&amp;dq=DEU%2BDAC...USD.&amp;to[TIME_PERIOD]=false</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
-        </is>
-      </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>Population (only available in German)</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
-        </is>
-      </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>Settlement area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
-        </is>
-      </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>Transport area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
-        </is>
-      </c>
-      <c r="E78" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
-        <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+        </is>
+      </c>
+      <c r="E78" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
+          <t>L_SP_2</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+        </is>
+      </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_3</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Treibhausgasemissionen </t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas emissions (only available in German)</t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+        </is>
+      </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_4</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquoten</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>Employment rates (only available in German)</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>L_SVWS</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Q_SVWS</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>Research and development in the economy (only available in German)</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
+        </is>
+      </c>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>L_TI_1</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Q_TA</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_1</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>Index der Luftschadstoff-Emissionen</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Index of air pollutant emissions</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+        </is>
+      </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_2</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBALAWA</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_3</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_4</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+        </is>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_5</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_6</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_7</t>
         </is>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C79" s="4" t="inlineStr">
+      <c r="C90" s="4" t="inlineStr">
         <is>
           <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
         </is>
       </c>
-      <c r="D79" s="4" t="inlineStr">
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
         </is>
       </c>
-      <c r="E79" s="4" t="inlineStr">
+      <c r="E90" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
         </is>
       </c>
-      <c r="F79" s="4" t="inlineStr">
+      <c r="F90" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_8</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>Erneuerbare Energien in Zahlen</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>Renewable energies in figures</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
+        </is>
+      </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -515,32 +515,2912 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>L_AGEB_1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Q_AGEB</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Primärenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Primary energy consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>https://ag-energiebilanzen.de/daten-und-fakten/primaerenergieverbrauch/</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>L_BB_1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Q_BUNDESBANK</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Verschuldung gem. Maastricht-Vertrag - Deutschland - Gesamtstaat</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Deficit / surplus and debt level as defined in the Maastricht Treaty/Germany/Debt level/Debt by category/instrument</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/dynamic/action/de/statistiken/zeitreihen-datenbanken/zeitreihen-datenbank/759778/759778?listId=www_v27_web011_21a</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/dynamic/action/en/statistics/time-series-databases/time-series-databases/743796/743796?treeAnchor=FINANZEN&amp;statisticType=BBK_ITS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>L_BB_2</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Q_BUNDESBANK</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Studie zur wirtschaftlichen Lage privater Haushalte</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Panel on household finances (PHF)</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie/ergebnisse</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesbank.de/en/bundesbank/research/panel-on-household-finances</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>L_BFN_1</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Q_BFN</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Indikator „Artenvielfalt und Landschaftsqualität“</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>„Biodiversity and landscape quality“ indicator (only available in German)</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bfn.de/indikator-artenvielfalt-und-landschaftsqualitaet</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>L_BKA_1</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Q_BKA</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Polizeiliche Kriminalstatistik</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Police Crime Statistics</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/DE/AktuelleInformationen/StatistikenLagebilder/PolizeilicheKriminalstatistik/pks_node.html</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bka.de/EN/CurrentInformation/Statistics/PoliceCrimeStatistics/policecrimestatistics_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>L_BMDV_1</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMDV</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Breitbandatlas</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t> Broadband Atlas (only available in German)</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/GIGA/DE/Breitbandatlas/start.html</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>L_BMEL_1</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMEL</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Nährstoffbilanzen und Düngemittel (Tabelle MBT-0111260-0000)</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Nutrient balances and fertilizers (table MBT-0111260-0000; only available in German)</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel-statistik.de/landwirtschaft/statistischer-monatsbericht-des-bmel-kapitel-a-landwirtschaft/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>L_BMEL_2</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMEL</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Betriebe und Flächen des ökologischen Landbaus in Deutschland</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Agricultural holdings total and holdings with organic farming</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/DE/themen/landwirtschaft/oekologischer-landbau/oekologischer-landbau_node</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/EN/topics/farming/organic-farming/organic-farming_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>L_BMEL_3</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMEL</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau in Deutschland</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Organic farming in Germany (only available in German)</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmel.de/SharedDocs/Downloads/DE/Broschueren/OekolandbauDeutschland.pdf?__blob=publicationFile&amp;v=14</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>L_BMWK_1</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMWK</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Development of renewable energies in Germany (only available in German)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>L_BMWK_2</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMWK</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Erneuerbare Energien</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Renewable energy</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmwk.de/Redaktion/DE/Dossier/erneuerbare-energien#entwicklung-in-zahlen</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmwk.de/Redaktion/EN/Dossier/renewable-energy.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>L_BMZ_1</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Facts and figures of German development cooperation</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>L_BMZ_2</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Elmau Progress Report 2022</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>L_BZGA_1</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Q_BZGA</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Suchtprävention</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Addiction Prevention (only available in German)</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>L_BZM_1</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Klimafinanzierung</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Climate financing</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_10</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>International education indicators in country comparison (only available in German)</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_11</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_12</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_13</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_14</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Average population – GENESIS online 12411-0040</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_15</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Back-calculated and updated population based on the 2011 census</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_16</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_17</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Entwicklungszusammenarbeit</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Development cooperation</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_18</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_19</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_2</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_20</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Participation rate of fathers</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_21</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_22</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Increase in settlement and transport area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_23</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Child day care statistics maps (only available in German)</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_24</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Überbelastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overburden</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_25</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Umweltökonomische Gesamtrechnungen</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Environmental Economic Accounting</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_27</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Raw material input productivity and ist components</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_28</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
           <t>L_DSTTS_29</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>Statistical report - General education schools (only available in German)</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_3</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_30</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsfläche</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Settlement area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_31</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Transportation area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_32</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Bevölkerung</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Population (only available in German)</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_33</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_34</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_4</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_5</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Income distribution (equivalised net income)</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_7</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_8</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Unbereinigter Gender Pay Gap</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Unadjusted gender pay gap</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_9</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>L_EE_1</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Q_AGEESTAT</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Working Group on Renewable Energy Statistics</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>L_EMAS_1</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Q_DIHK</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>EMAS-Statistiken</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>EMAS statistics (only available in German)</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.emas.de/statistiken/</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.emas.de/statistiken/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_1</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat Datenbank</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Eurostat database</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_10</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_11</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_12</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Area under organic farming</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_13</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Treatable and preventable mortality of residents</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_2</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Employment rates by sex, age and citizenship</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_3</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_4</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>(Severe) Material deprivation rate</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_5</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROPEANCOMMISSION</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>STECF - Reports</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_6</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_7</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_8</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>L_ERSTT_9</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Q_EUROSTAT</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>L_EZB_1</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Q_EZB</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Household Finance and Consumption Network (HFCN)</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Household Finance and Consumption Network (HFCN)</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>L_FIDAR_1</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Q_FIDAR</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Studie zum WoB-Index</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Study on the WoB Index (only available in German)</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>L_GBE_1</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Vorzeitige Sterblichkeit</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>L_GIZ_1</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Q_BMZ</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>Members of the Partnership for Sustainable Textiles</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>L_IFEU_1</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Q_IFEU</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>TREMOD</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>TREMOD</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>L_LAK_1</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>Energieindikatoren allgemein</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>Energy indicators general (only available in German)</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>L_LAK_2</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>L_LAK_3</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Q_LAKEB</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>L_LANUV_2</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Q_LIKI</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Flächenverbrauch</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>Land consumption (only available in German)</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>L_LIKI_1</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Q_LIKI</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater (only available in German)</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>L_OECD_1</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Q_OECD</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>OECD - Total flows by donor</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>L_OECD_2</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Q_OECD</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>Income distribution database</t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="inlineStr">
+        <is>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>L_OECD_3</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Q_OECD</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Eingänge nach Ländern und Regionen (nicht auf Deutsch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Receipts by country and region</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>https://data-explorer.oecd.org/vis?lc=en&amp;df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC2%40DF_RECPTS&amp;df[ag]=OECD.DCD.FSD&amp;pd=2013%2C&amp;dq=DEU%2BDAC...USD.&amp;to[TIME_PERIOD]=false</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_1</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Bevölkerung</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>Population (only available in German)</t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_2</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsfläche</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>Settlement area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>L_RDB_3</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Q_DESTATIS</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>Transport area (only available in German)</t>
+        </is>
+      </c>
+      <c r="E78" s="5" t="inlineStr">
+        <is>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_1</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+        </is>
+      </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_2</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+        </is>
+      </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_3</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Treibhausgasemissionen </t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas emissions (only available in German)</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>L_SP_4</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Q_VWGDL</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquoten</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>Employment rates (only available in German)</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="inlineStr">
+        <is>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>L_SVWS</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Q_SVWS</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>Research and development in the economy (only available in German)</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="inlineStr">
+        <is>
+          <t>https://www.stifterverband.org/fue-facts-2020</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>L_TI_1</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Q_TA</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+        </is>
+      </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_1</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>Index der Luftschadstoff-Emissionen</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>Index of air pollutant emissions</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_2</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBALAWA</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+        </is>
+      </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_3</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_4</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_5</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_6</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+        </is>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_8</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>Erneuerbare Energien in Zahlen</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>Renewable energies in figures</t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
+        </is>
+      </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -2861,12 +2861,12 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Eingänge nach Ländern und Regionen (nicht auf Deutsch verfügbar)</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Receipts by country and region</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?lc=en&amp;df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC2%40DF_RECPTS&amp;df[ag]=OECD.DCD.FSD&amp;pd=2013%2C&amp;dq=DEU%2BDAC...USD.&amp;to[TIME_PERIOD]=false</t>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -473,7 +473,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="18.45703125"/>
-    <col customWidth="true" min="2" max="2" width="13.8359375"/>
+    <col customWidth="true" min="2" max="2" width="51.4140625"/>
     <col customWidth="true" min="3" max="3" width="74.12109375"/>
     <col customWidth="true" min="4" max="4" width="101.66015625"/>
     <col customWidth="true" min="5" max="5" width="-113.32421875"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
         </is>
       </c>
     </row>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>https://www.bundesbank.de/de/bundesbank/forschung/haushaltsstudie/ergebnisse</t>
+          <t>https://www.bundesbank.de/de/bundesbank/forschung/studie-zur-wirtschaftlichen-lage-privater-haushalte-phf/</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2020</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -803,39 +803,39 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>L_BMWK_1</t>
+          <t>L_BMFSFJ_1</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMFSFJ</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
+          <t>Gesetze für mehr Frauen in Führungspositionen</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Development of renewable energies in Germany (only available in German)</t>
+          <t>Laws for more women in management positions (only available in German)</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t>http://www.bmfsfj.de/frauen-in-fuehrungspositionen</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>L_BMWK_2</t>
+          <t>L_BMWK_1</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -845,61 +845,61 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare Energien</t>
+          <t>Entwicklung der erneuerbaren Energien in Deutschland</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Renewable energy</t>
+          <t>Development of renewable energies in Germany (only available in German)</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwk.de/Redaktion/DE/Dossier/erneuerbare-energien#entwicklung-in-zahlen</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmwk.de/Redaktion/EN/Dossier/renewable-energy.html</t>
+          <t>https://www.erneuerbare-energien.de/EE/Navigation/DE/Service/Erneuerbare_Energien_in_Zahlen/Zeitreihen/zeitreihen.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_1</t>
+          <t>L_BMWK_2</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
+          <t>Erneuerbare Energien</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Facts and figures of German development cooperation</t>
+          <t>Renewable energy</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+          <t>https://www.bmwk.de/Redaktion/DE/Dossier/erneuerbare-energien#entwicklung-in-zahlen</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en/ministry/facts-figures</t>
+          <t>https://www.bmwk.de/Redaktion/EN/Dossier/renewable-energy.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_2</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -909,125 +909,125 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022</t>
+          <t>Facts and figures of German development cooperation</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Elmau Progress Report 2022</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1069,29 +1069,29 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1165,29 +1165,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1197,29 +1197,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1293,29 +1293,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1325,29 +1325,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1421,29 +1421,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1453,17 +1453,17 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -1475,7 +1475,7 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_27</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1549,29 +1549,29 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity and ist components</t>
+          <t>Environmental Economic Accounting</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_28</t>
+          <t>L_DSTTS_27</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Raw material input productivity and ist components</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_29</t>
+          <t>L_DSTTS_28</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1613,29 +1613,29 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Statistical report - General education schools (only available in German)</t>
+          <t>Research and development</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_DSTTS_29</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
+          <t>Statistical report - General education schools (only available in German)</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_30</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1677,29 +1677,29 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_31</t>
+          <t>L_DSTTS_30</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Transportation area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
@@ -1731,7 +1731,7 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_32</t>
+          <t>L_DSTTS_31</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Transportation area (only available in German)</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_33</t>
+          <t>L_DSTTS_32</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1773,17 +1773,17 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_34</t>
+          <t>L_DSTTS_33</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1805,17 +1805,17 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
+          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_34</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1837,29 +1837,29 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1869,29 +1869,29 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1901,29 +1901,29 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1965,125 +1965,125 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2093,29 +2093,29 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -2125,29 +2125,29 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2157,29 +2157,29 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_13</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Treatable and preventable mortality of residents</t>
+          <t>Area under organic farming</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_13</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -2221,29 +2221,29 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Treatable and preventable mortality of residents</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2253,29 +2253,29 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2285,93 +2285,93 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>(Severe) Material deprivation rate</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t/>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -2381,29 +2381,29 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2413,29 +2413,29 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2445,221 +2445,221 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -2669,29 +2669,29 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -2701,61 +2701,61 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -2765,17 +2765,17 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
@@ -2787,39 +2787,39 @@
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F73" s="5" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_2</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2829,29 +2829,29 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t/>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_3</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2861,61 +2861,61 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Flows by donor (ODA + OOF + Private)</t>
+          <t>Income distribution database</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -2925,17 +2925,17 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
@@ -2947,7 +2947,7 @@
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -2957,17 +2957,17 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
@@ -2979,39 +2979,39 @@
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -3021,29 +3021,29 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -3053,29 +3053,29 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -3085,49 +3085,49 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2022</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
@@ -3139,135 +3139,135 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -3277,29 +3277,29 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -3309,116 +3309,148 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_8</t>
         </is>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C92" s="4" t="inlineStr">
+      <c r="C93" s="4" t="inlineStr">
         <is>
           <t>Erneuerbare Energien in Zahlen</t>
         </is>
       </c>
-      <c r="D92" s="4" t="inlineStr">
+      <c r="D93" s="4" t="inlineStr">
         <is>
           <t>Renewable energies in figures</t>
         </is>
       </c>
-      <c r="E92" s="5" t="inlineStr">
+      <c r="E93" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
         </is>
       </c>
-      <c r="F92" s="5" t="inlineStr">
+      <c r="F93" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1027,39 +1027,39 @@
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_DNK_1</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Datenbank zum Deutschen Nachhaltigkeitskodex</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>XXXDatenbank zum Deutschen Nachhaltigkeitskodex</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/de/bericht/berichte-einsehen/</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1069,29 +1069,29 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1165,29 +1165,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1197,29 +1197,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1293,29 +1293,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1325,29 +1325,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1421,29 +1421,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1453,29 +1453,29 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1485,17 +1485,17 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
@@ -1507,7 +1507,7 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1549,29 +1549,29 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_27</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity and ist components</t>
+          <t>Environmental Economic Accounting</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_28</t>
+          <t>L_DSTTS_27</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1613,29 +1613,29 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Raw material input productivity and ist components</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_29</t>
+          <t>L_DSTTS_28</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Statistical report - General education schools (only available in German)</t>
+          <t>Research and development</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_DSTTS_29</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1677,29 +1677,29 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
+          <t>Statistical report - General education schools (only available in German)</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_30</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_31</t>
+          <t>L_DSTTS_30</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Transportation area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_32</t>
+          <t>L_DSTTS_31</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1773,17 +1773,17 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Transportation area (only available in German)</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_33</t>
+          <t>L_DSTTS_32</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1805,17 +1805,17 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_34</t>
+          <t>L_DSTTS_33</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
+          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
@@ -1859,7 +1859,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_34</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1869,29 +1869,29 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1901,29 +1901,29 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1997,125 +1997,125 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -2125,29 +2125,29 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2157,29 +2157,29 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_13</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -2221,29 +2221,29 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Treatable and preventable mortality of residents</t>
+          <t>Area under organic farming</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_13</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2253,29 +2253,29 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Treatable and preventable mortality of residents</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2285,29 +2285,29 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2317,93 +2317,93 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>(Severe) Material deprivation rate</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t/>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2413,29 +2413,29 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2477,253 +2477,253 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IAB_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -2733,157 +2733,157 @@
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_2</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_3</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Flows by donor (ODA + OOF + Private)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -2908,78 +2908,78 @@
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Income distribution database</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -2989,17 +2989,17 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
@@ -3011,71 +3011,71 @@
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -3085,29 +3085,29 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -3117,157 +3117,157 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2022</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -3277,61 +3277,61 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -3341,61 +3341,61 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -3405,52 +3405,116 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_6</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E94" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_8</t>
         </is>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
+      <c r="C95" s="4" t="inlineStr">
         <is>
           <t>Erneuerbare Energien in Zahlen</t>
         </is>
       </c>
-      <c r="D93" s="4" t="inlineStr">
+      <c r="D95" s="4" t="inlineStr">
         <is>
           <t>Renewable energies in figures</t>
         </is>
       </c>
-      <c r="E93" s="5" t="inlineStr">
+      <c r="E95" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
         </is>
       </c>
-      <c r="F93" s="5" t="inlineStr">
+      <c r="F95" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0001</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0007</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0001</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0007</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1842,12 +1842,12 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German</t>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German)</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#_xec5s7x8p</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#sprg409790</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_35</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1901,29 +1901,29 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0041</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+          <t>Average population – GENESIS online 12411-0041</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1997,29 +1997,29 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2029,125 +2029,125 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2157,29 +2157,29 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD11__custom_3696252/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=de</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -2221,29 +2221,29 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_13</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2253,29 +2253,29 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche - Eurostat-Tabelle [org_cropar]</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Treatable and preventable mortality of residents</t>
+          <t>Area under organic farming - Eurostat table [org_cropar]</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_13</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2285,29 +2285,29 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern - Eurostat-Tabelle [hlth_cd_apr]</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Treatable and preventable mortality of residents - Eurostat table [hlth_cd_apr]</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2317,29 +2317,29 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -2349,93 +2349,93 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nur auf Englisch verfügbar)</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>(Severe) Material deprivation rate</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t/>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2477,29 +2477,29 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2509,253 +2509,253 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Household Finance and Consumption Network (HFCN) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_IAB_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_IAB_1</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -2765,29 +2765,29 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -2797,61 +2797,61 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
@@ -2883,39 +2883,39 @@
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F76" s="5" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_2</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -2925,29 +2925,29 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t/>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_3</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -2957,61 +2957,61 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Flows by donor (ODA + OOF + Private)</t>
+          <t>Income distribution database</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -3021,17 +3021,17 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
@@ -3043,7 +3043,7 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -3053,17 +3053,17 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
@@ -3075,39 +3075,39 @@
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -3117,29 +3117,29 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -3149,29 +3149,29 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -3181,49 +3181,49 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2022</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
@@ -3235,135 +3235,135 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Messstellen an Flüssen mit Überschreitung des Orientierungswertes für Gesamtphosphor</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Sampling sites which exceeded the requirement for good status for total phosphorus in rivers</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Eutrophierung von Flüssen durch Phosphor</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>River eutrophication by phosphorus</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -3373,29 +3373,29 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -3405,116 +3405,148 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E95" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_8</t>
         </is>
       </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C95" s="4" t="inlineStr">
+      <c r="C96" s="4" t="inlineStr">
         <is>
           <t>Erneuerbare Energien in Zahlen</t>
         </is>
       </c>
-      <c r="D95" s="4" t="inlineStr">
+      <c r="D96" s="4" t="inlineStr">
         <is>
           <t>Renewable energies in figures</t>
         </is>
       </c>
-      <c r="E95" s="5" t="inlineStr">
+      <c r="E96" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
         </is>
       </c>
-      <c r="F95" s="5" t="inlineStr">
+      <c r="F96" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -1869,17 +1869,17 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Tabellenband: Umweltökonomische Gesamtrechnungen – Direkte und indirekte Energieflüsse und CO2-Emissionen</t>
+          <t>Statistischer Bericht - Umweltökonomische Gesamtrechnungen (UGR) - Energiegesamtrechnung</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Volume of tables: Environmental economic accounts - Direct and indirect energy flows and CO2 emissions (only available in German)</t>
+          <t>Statistical Report - Environmental economic accounts (UGR) - Energy accounts (only available in German)</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_cdu0u6no9</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_bluswuy27</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -963,91 +963,91 @@
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_3</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Partnerländer deutscher Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Partner countries of German development cooperation (only available in German)</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/de/laender</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_DNK_1</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Datenbank zum Deutschen Nachhaltigkeitskodex</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>XXXDatenbank zum Deutschen Nachhaltigkeitskodex</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/de/bericht/berichte-einsehen/</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -1059,39 +1059,39 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_DNK_1</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Datenbank zum Deutschen Nachhaltigkeitskodex</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>XXXDatenbank zum Deutschen Nachhaltigkeitskodex</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/de/bericht/berichte-einsehen/</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1165,29 +1165,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1197,29 +1197,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1293,29 +1293,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1325,29 +1325,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0007</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0007</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0007</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0007</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1421,29 +1421,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1453,29 +1453,29 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
@@ -1539,7 +1539,7 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1549,29 +1549,29 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_27</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1613,29 +1613,29 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity and ist components</t>
+          <t>Environmental Economic Accounting</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_28</t>
+          <t>L_DSTTS_27</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Raw material input productivity and ist components</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_29</t>
+          <t>L_DSTTS_28</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1677,29 +1677,29 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Statistical report - General education schools (only available in German)</t>
+          <t>Research and development</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_DSTTS_29</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
+          <t>Statistical report - General education schools (only available in German)</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_30</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1741,29 +1741,29 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_31</t>
+          <t>L_DSTTS_30</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1773,17 +1773,17 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Transportation area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_32</t>
+          <t>L_DSTTS_31</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1805,17 +1805,17 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Transportation area (only available in German)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_33</t>
+          <t>L_DSTTS_32</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#sprg409790</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
@@ -1859,7 +1859,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_34</t>
+          <t>L_DSTTS_33</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht - Umweltökonomische Gesamtrechnungen (UGR) - Energiegesamtrechnung</t>
+          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic accounts (UGR) - Energy accounts (only available in German)</t>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German)</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_bluswuy27</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#sprg409790</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_35</t>
+          <t>L_DSTTS_34</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1901,29 +1901,29 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0041</t>
+          <t>Statistischer Bericht - Umweltökonomische Gesamtrechnungen (UGR) - Energiegesamtrechnung</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0041</t>
+          <t>Statistical Report - Environmental economic accounts (UGR) - Energy accounts (only available in German)</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_bluswuy27</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_35</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0041</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+          <t>Average population – GENESIS online 12411-0041</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1997,29 +1997,29 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2029,29 +2029,29 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2061,125 +2061,125 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -2221,29 +2221,29 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=de</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2253,29 +2253,29 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche - Eurostat-Tabelle [org_cropar]</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming - Eurostat table [org_cropar]</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_13</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2285,29 +2285,29 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern - Eurostat-Tabelle [hlth_cd_apr]</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche - Eurostat-Tabelle [org_cropar]</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Treatable and preventable mortality of residents - Eurostat table [hlth_cd_apr]</t>
+          <t>Area under organic farming - Eurostat table [org_cropar]</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_13</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2317,29 +2317,29 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern - Eurostat-Tabelle [hlth_cd_apr]</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Treatable and preventable mortality of residents - Eurostat table [hlth_cd_apr]</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -2349,29 +2349,29 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -2381,93 +2381,93 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>(Severe) Material deprivation rate</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t/>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2477,29 +2477,29 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2509,29 +2509,29 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2541,253 +2541,253 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN) (nicht auf Deutsch verfügbar)</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Household Finance and Consumption Network (HFCN) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_IAB_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_IAB_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -2797,29 +2797,29 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2829,61 +2829,61 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -2893,17 +2893,17 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
@@ -2915,39 +2915,39 @@
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F77" s="5" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_2</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -2957,29 +2957,29 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t/>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_3</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -2989,61 +2989,61 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Flows by donor (ODA + OOF + Private)</t>
+          <t>Income distribution database</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -3053,17 +3053,17 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
@@ -3075,7 +3075,7 @@
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -3085,17 +3085,17 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
@@ -3107,39 +3107,39 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -3149,29 +3149,29 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -3181,29 +3181,29 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -3213,49 +3213,49 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2022</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
@@ -3267,135 +3267,135 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Flüssen durch Phosphor</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>River eutrophication by phosphorus</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Eutrophierung von Flüssen durch Phosphor</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>River eutrophication by phosphorus</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -3405,29 +3405,29 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -3437,116 +3437,148 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E96" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_8</t>
         </is>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C96" s="4" t="inlineStr">
+      <c r="C97" s="4" t="inlineStr">
         <is>
           <t>Erneuerbare Energien in Zahlen</t>
         </is>
       </c>
-      <c r="D96" s="4" t="inlineStr">
+      <c r="D97" s="4" t="inlineStr">
         <is>
           <t>Renewable energies in figures</t>
         </is>
       </c>
-      <c r="E96" s="5" t="inlineStr">
+      <c r="E97" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
         </is>
       </c>
-      <c r="F96" s="5" t="inlineStr">
+      <c r="F97" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2627,199 +2627,199 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_FATF_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Ratings Deutschland</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Ratings Germany</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.fatf-gafi.org/en/countries/detail/Germany.html</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://www.fatf-gafi.org/en/countries/detail/Germany.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_IAB_1</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_IAB_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2829,29 +2829,29 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2861,61 +2861,61 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -2925,17 +2925,17 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
@@ -2947,39 +2947,39 @@
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
           <t/>
-        </is>
-      </c>
-      <c r="F78" s="5" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_2</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -2989,29 +2989,29 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t/>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_3</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -3021,61 +3021,61 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Flows by donor (ODA + OOF + Private)</t>
+          <t>Income distribution database</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -3085,17 +3085,17 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
@@ -3107,7 +3107,7 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
@@ -3139,39 +3139,39 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -3181,29 +3181,29 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -3213,29 +3213,29 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -3245,49 +3245,49 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2022</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
@@ -3299,135 +3299,135 @@
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Flüssen durch Phosphor</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>River eutrophication by phosphorus</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Eutrophierung von Flüssen durch Phosphor</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>River eutrophication by phosphorus</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -3437,29 +3437,29 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -3469,116 +3469,148 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
         </is>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
         </is>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBA_1</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
         </is>
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
         </is>
       </c>
       <c r="F96" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_8</t>
         </is>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="C98" s="4" t="inlineStr">
         <is>
           <t>Erneuerbare Energien in Zahlen</t>
         </is>
       </c>
-      <c r="D97" s="4" t="inlineStr">
+      <c r="D98" s="4" t="inlineStr">
         <is>
           <t>Renewable energies in figures</t>
         </is>
       </c>
-      <c r="E97" s="5" t="inlineStr">
+      <c r="E98" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
         </is>
       </c>
-      <c r="F97" s="5" t="inlineStr">
+      <c r="F98" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>

--- a/Tab_8a_Links.xlsx
+++ b/Tab_8a_Links.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -899,39 +899,39 @@
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_1</t>
+          <t>L_BMWK_3</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
+          <t>Vergabestatistik</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Facts and figures of German development cooperation</t>
+          <t>Procurement statistics (only available in German)</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
+          <t>https://www.bmwk.de/Redaktion/DE/Artikel/Wirtschaft/vergabestatistik.html</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/en/ministry/facts-figures</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_2</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -941,29 +941,29 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
+          <t>Zahlen und Fakten der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Elmau Progress Report 2022</t>
+          <t>Facts and figures of German development cooperation</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
+          <t>https://www.bmz.de/de/ministerium/zahlen-fakten</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
+          <t>https://www.bmz.de/en/ministry/facts-figures</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>L_BMZ_3</t>
+          <t>L_BMZ_2</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -973,113 +973,113 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Partnerländer deutscher Entwicklungszusammenarbeit</t>
+          <t>Elmau Progress Report 2022 (nur auf Englisch verfügbar)</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Partner countries of German development cooperation (only available in German)</t>
+          <t>Elmau Progress Report 2022</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/laender</t>
+          <t>https://www.bmz.de/de/aktuelles/g7-praesidentschaft/elmau-progress-report-2022</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bmz.de/resource/blob/116286/4e535985a12d0701e63b25ca9f4d0fb8/2022-07-01-elmau-progress-report-2022-data.pdf</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>L_BZGA_1</t>
+          <t>L_BMZ_3</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Q_BZGA</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Suchtprävention</t>
+          <t>Partnerländer deutscher Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Addiction Prevention (only available in German)</t>
+          <t>Partner countries of German development cooperation (only available in German)</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t>https://www.bmz.de/de/laender</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>L_BZM_1</t>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_BZGA</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Klimafinanzierung</t>
+          <t>Suchtprävention</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Climate financing</t>
+          <t>Addiction Prevention (only available in German)</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.bzga.de/presse/daten-und-fakten/suchtpraevention/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>L_DNK_1</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMWK</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Datenbank zum Deutschen Nachhaltigkeitskodex</t>
+          <t>Klimafinanzierung</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>XXXDatenbank zum Deutschen Nachhaltigkeitskodex</t>
+          <t>Climate financing</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>https://www.deutscher-nachhaltigkeitskodex.de/de/bericht/berichte-einsehen/</t>
+          <t>https://www.bmz.de/de/entwicklungspolitik/klimawandel-und-entwicklung/klimafinanzierung</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
@@ -1091,39 +1091,39 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_10</t>
+          <t>L_DNK_1</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
+          <t>Datenbank zum Deutschen Nachhaltigkeitskodex</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>International education indicators in country comparison (only available in German)</t>
+          <t>XXXDatenbank zum Deutschen Nachhaltigkeitskodex</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t>https://www.deutscher-nachhaltigkeitskodex.de/de/bericht/berichte-einsehen/</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_11</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
+          <t>Internationale Bildungsindikatoren im Ländervergleich</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
+          <t>International education indicators in country comparison (only available in German)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Bildungsstand/_inhalt.html#sprg233662</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_12</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1165,29 +1165,29 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
+          <t>Kinder und tätige Personen in Tageseinrichtungen und in öffentlich geförderter Kindertagespflege</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
+          <t>Children and persons working in day care facilities and in publicly funded day care for children (only available in German)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/_inhalt.html#sprg234640</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_13</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1197,29 +1197,29 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
+          <t>VGR des Bundes - Bruttoanlageinvestitionen (nominal/preisbereinigt) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
+          <t>National accounts - Gross fixed capital formation (nominal/price-adjusted) – GENESIS online 81000-0023</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0023&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_14</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
+          <t>VGR des Bundes - Bruttowertschöpfung, Bruttoinlandsprodukt (nominal/preisbereinigt) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0040</t>
+          <t>National accounts - Gross value added, gross domestic product (nominal/price-adjusted) – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 81000-0001 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_15</t>
+          <t>L_DSTTS_14</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Back-calculated and updated population based on the 2011 census</t>
+          <t>Average population – GENESIS online 12411-0040</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=de</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code= 12411-0040 &amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_16</t>
+          <t>L_DSTTS_15</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1293,29 +1293,29 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
+          <t>Rückgerechnete und fortgeschriebene Bevölkerung auf Grundlage des Zensus 2011</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
+          <t>Back-calculated and updated population based on the 2011 census</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/_inhalt.html#sprg233540</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_17</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1325,29 +1325,29 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Absolventen und Abgänger: Deutschland – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>School leavers (graduates and dropouts): Germany – GENESIS online 21111-0004</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=de</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0004&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823284613&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_18</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0007</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Exports and imports (foreign trade) – GENESIS online 51000-0007</t>
+          <t>Development cooperation</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Staat/Oeffentliche-Finanzen/Entwicklungszusammenarbeit/_inhalt.html</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Government/Public-Finance/Development-Cooperation/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
+          <t>Aus- und Einfuhr (Außenhandel) – GENESIS online 51000-0007</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted Gender Pay Gap by Länder</t>
+          <t>Exports and imports (foreign trade) – GENESIS online 51000-0007</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=de</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=51000-0007&amp;bypass=true&amp;levelindex=1&amp;levelid=1669021022626&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1421,29 +1421,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
+          <t>Unbereinigter Gender Pay Gap nach Bundesländern</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
+          <t>Unadjusted Gender Pay Gap by Länder</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-02-bundeslaender-ab-2014.html</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1453,29 +1453,29 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
+          <t>Bruttoinlandsprodukt – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Participation rate of fathers</t>
+          <t>National accounts - Gross value added, gross domestic product – GENESIS online 81000-0001</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660822010108&amp;language=de</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_21</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
+          <t>Väterbeteiligung – GENESIS online 22922-0011</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
+          <t>Participation rate of fathers</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660642440197#abreadcrumb&amp;language=de</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=22922-0011&amp;bypass=true&amp;levelindex=0&amp;levelid=1660813986805#abreadcrumb&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_22</t>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Absolventen und Abgänger: Bundesländer – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Increase in settlement and transport area (only available in German)</t>
+          <t>School leavers (graduates and dropouts): Länder – GENESIS online 21111-0013</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=0&amp;levelid=1660823504838&amp;language=de</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21111-0013&amp;bypass=true&amp;levelindex=1&amp;levelid=1660810680251&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_23</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Karten zur Statistik der Kindertagesbetreuung</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Child day care statistics maps (only available in German)</t>
+          <t>Increase in settlement and transport area (only available in German)</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Flaechennutzung/Tabellen/anstieg-suv2.html</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_24</t>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Überbelastung durch Wohnkosten</t>
+          <t>Karten zur Statistik der Kindertagesbetreuung</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Child day care statistics maps (only available in German)</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/kindertagesbetreuung-karte.html;#karte3</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_25</t>
+          <t>L_DSTTS_24</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1613,29 +1613,29 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Umweltökonomische Gesamtrechnungen</t>
+          <t>Überbelastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Environmental Economic Accounting</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
+          <t>https://www.destatis.de/Europa/DE/Thema/Bevoelkerung-Arbeit-Soziales/Soziales-Lebensbedingungen/Wohnkosten.html</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
+          <t>https://www.destatis.de/Europa/EN/Topic/Population-Labour-Social-Issues/Social-issues-living-conditions/_node.html;jsessionid=B340DD00C6EEDC7477B2AD2B54E4BC40.live731#587120</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_27</t>
+          <t>L_DSTTS_25</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
+          <t>Umweltökonomische Gesamtrechnungen</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity and ist components</t>
+          <t>Environmental Economic Accounting</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/_inhalt.html</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_28</t>
+          <t>L_DSTTS_27</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1677,29 +1677,29 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung</t>
+          <t>Gesamtrohstoffproduktivität und ihre Komponenten</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Raw material input productivity and ist components</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/rohstoffe-materialfluesse-wasser/Tabellen/gesamtrohstoff-produktivitaet.html</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/raw-material-flows-water/Tables/total-raw-material-productivity.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_29</t>
+          <t>L_DSTTS_28</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
+          <t>Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Statistical report - General education schools (only available in German)</t>
+          <t>Research and development</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Forschung-Entwicklung/_inhalt.html</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Research-Development/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_3</t>
+          <t>L_DSTTS_29</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1741,29 +1741,29 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
+          <t>Statistischer Bericht – Allgemeinbildende Schulen</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
+          <t>Statistical report - General education schools (only available in German)</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Schulen/_inhalt.html#_jq2v0kmyn</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Schools/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_30</t>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1773,29 +1773,29 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>VGR des Bundes - Einnahmen und Ausgaben sowie Finanzierungssaldo des Staates – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>National accounts - Revenue, expenditure, net lending/net borrowing of general government – GENESIS online 81000-0031</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=81000-0031&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_31</t>
+          <t>L_DSTTS_30</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1805,17 +1805,17 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Transportation area (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_32</t>
+          <t>L_DSTTS_31</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Transportation area (only available in German)</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517838976#abreadcrumb</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
@@ -1859,7 +1859,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_33</t>
+          <t>L_DSTTS_32</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#sprg409790</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=12411-01-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1713517974290#abreadcrumb</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_34</t>
+          <t>L_DSTTS_33</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Statistischer Bericht - Umweltökonomische Gesamtrechnungen (UGR) - Energiegesamtrechnung</t>
+          <t>Statistischer Bericht – Umweltökonomische Gesamtrechnungen (UGR) – Verkehr und Umwelt</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Statistical Report - Environmental economic accounts (UGR) - Energy accounts (only available in German)</t>
+          <t>Statistical Report - Environmental economic Accounts (UGR) - Transport and environme (only available in German)</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_bluswuy27</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/verkehr-tourismus/_inhalt.html#sprg409790</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
@@ -1923,7 +1923,7 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_35</t>
+          <t>L_DSTTS_34</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0041</t>
+          <t>Statistischer Bericht - Umweltökonomische Gesamtrechnungen (UGR) - Energiegesamtrechnung</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Average population – GENESIS online 12411-0041</t>
+          <t>Statistical Report - Environmental economic accounts (UGR) - Energy accounts (only available in German)</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/energiefluesse-emissionen/_inhalt.html#_bluswuy27</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_4</t>
+          <t>L_DSTTS_35</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
+          <t>Durchschnittliche Bevölkerung – GENESIS online 12411-0041</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
+          <t>Average population – GENESIS online 12411-0041</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=de</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=12411-0041&amp;bypass=true&amp;levelindex=1&amp;levelid=1660802268437&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_5</t>
+          <t>L_DSTTS_36</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1997,29 +1997,29 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
+          <t>Weiterbildung</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Income distribution (equivalised net income)</t>
+          <t>Continuing education and training</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bildung-Forschung-Kultur/Weiterbildung/_inhalt.html</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Education-Research-Culture/Continuing-Education/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_7</t>
+          <t>L_DSTTS_37</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2029,29 +2029,29 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
+          <t>Vergabestatistik – GENESIS online 79994</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
+          <t>Public procurement statistics – GENESIS online 79994</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www-genesis.destatis.de/datenbank/online/statistic/79994/details</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
+          <t>https://www-genesis.destatis.de/datenbank/online/statistic/79994/details</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_DSTTS_38</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2061,29 +2061,29 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Ökosystemrechnungen</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Unadjusted gender pay gap</t>
+          <t>Ecosystem accounts</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Umwelt/UGR/oekosystemgesamtrechnungen/_inhalt.html</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Environment/Environmental-Economic-Accounting/ecosystem-account/_node.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_9</t>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2093,221 +2093,221 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Bund) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
+          <t>Research and development expenditure and staff (Germany) – GENESIS online 21821-0001</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=1&amp;levelid=1622107294362&amp;language=de</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0001&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>L_EE_1</t>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Q_AGEESTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
+          <t>Einkommensverteilung (Nettoäquivalenzeinkommen) in Deutschland</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Working Group on Renewable Energy Statistics</t>
+          <t>Income distribution (equivalised net income)</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
+          <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Einkommen-Konsum-Lebensbedingungen/Lebensbedingungen-Armutsgefaehrdung/Tabellen/einkommensverteilung-mz-silc.html</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.destatis.de/EN/Themes/Society-Environment/Income-Consumption-Living-Conditions/Living-Conditions-Risk-Poverty/Tables/income-distribution-mz-silc.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>L_EMAS_1</t>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Q_DIHK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Statistiken</t>
+          <t>Agrarstrukturerhebung - Betriebe mit ökologischem Landbau</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>EMAS statistics (only available in German)</t>
+          <t>Agrarstrukturerhebung - farms with organic agriculture (only available in German)</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>https://www.emas.de/statistiken/</t>
+          <t>https://www.destatis.de/DE/Themen/Branchen-Unternehmen/Landwirtschaft-Forstwirtschaft-Fischerei/Landwirtschaftliche-Betriebe/Tabellen/oekologischer-landbau-bundeslaender.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_1</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Eurostat Datenbank</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Eurostat database</t>
+          <t>Unadjusted gender pay gap</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/de/data/database</t>
+          <t>https://www.destatis.de/DE/Themen/Arbeit/Verdienste/Verdienste-GenderPayGap/Tabellen/ugpg-01-gebietsstand.html</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_10</t>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
+          <t>Interne Ausgaben und Personal für Forschung und Entwicklung (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
+          <t>Research and development expenditure and staff (Länder) – GENESIS online 21821-0002</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=de</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=0&amp;levelid=1660726117256&amp;language=de</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=en</t>
+          <t>https://www-genesis.destatis.de/genesis//online?operation=table&amp;code=21821-0002&amp;bypass=true&amp;levelindex=1&amp;levelid=1623135114747&amp;language=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_11</t>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_AGEESTAT</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
+          <t>Arbeitsgruppe Erneuerbare Energien-Statistik</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
+          <t>Working Group on Renewable Energy Statistics</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen/arbeitsgruppe-erneuerbare-energien-statistik</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_12</t>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>Q_DIHK</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Für ökologische Landwirtschaft genutzte Fläche - Eurostat-Tabelle [org_cropar]</t>
+          <t>EMAS-Statistiken</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Area under organic farming - Eurostat table [org_cropar]</t>
+          <t>EMAS statistics (only available in German)</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
+          <t>https://www.emas.de/statistiken/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_13</t>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2317,29 +2317,29 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern - Eurostat-Tabelle [hlth_cd_apr]</t>
+          <t>Eurostat Datenbank</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Treatable and preventable mortality of residents - Eurostat table [hlth_cd_apr]</t>
+          <t>Eurostat database</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/de/data/database</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
+          <t>https://ec.europa.eu/eurostat/web/main/data/database</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_2</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -2349,29 +2349,29 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
+          <t>Rate der erheblichen materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Employment rates by sex, age and citizenship</t>
+          <t>Severe material and social deprivation rate - Eurostat table [ilc_mdsd11]</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=de</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd11/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_3</t>
+          <t>L_ERSTT_11</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -2381,29 +2381,29 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
+          <t>Quote der Überbelastung durch Wohnkosten - Eurostat-Tabelle [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
+          <t>Housing cost overburden rate - Eurostat table [ilc_lvho07a ]</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?lang=de&amp;category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_LVHO07A/default/table?category=livcon.ilc.ilc_lv.ilc_lvho.ilc_lvho_hc</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_4</t>
+          <t>L_ERSTT_12</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Rate der (erheblichen) materiellen Deprivation</t>
+          <t>Für ökologische Landwirtschaft genutzte Fläche - Eurostat-Tabelle [org_cropar]</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>(Severe) Material deprivation rate</t>
+          <t>Area under organic farming - Eurostat table [org_cropar]</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=de</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_02_40/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_5</t>
+          <t>L_ERSTT_13</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROPEANCOMMISSION</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
+          <t>Durch Behandlung und Prävention vermeidbare Sterblichkeit von Einwohnern - Eurostat-Tabelle [hlth_cd_apr]</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>STECF - Reports</t>
+          <t>Treatable and preventable mortality of residents - Eurostat table [hlth_cd_apr]</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=de&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
         <is>
-          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/hlth_cd_apr/default/table?lang=en&amp;category=hlth.hlth_cdeath.hlth_cd_pbt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_6</t>
+          <t>L_ERSTT_14</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2477,29 +2477,29 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
+          <t>Teilnahmequote an Bildung und Weiterbildung nach Geschlecht - Eurostat-Tabelle [trng_aes_100]</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
+          <t>Participation rate in education and training by sex - Eurostat table [trng_aes_100]</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/trng_aes_100/default/table?lang=de&amp;category=educ.educ_part.trng.trng_aes_12m.trng_aes_12m0</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/trng_aes_100/default/table?category=educ.educ_part.trng.trng_aes_12m.trng_aes_12m0</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_7</t>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2509,29 +2509,29 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
+          <t>Erwerbstätigenquoten nach Geschlecht, Alter und Staatsangehörigkeit</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
+          <t>Employment rates by sex, age and citizenship</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd07/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=de</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/LFSA_ERGAN__custom_6067281/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2541,29 +2541,29 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers - Eurostat table  [ilc_di12c ]</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12C/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_9</t>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -2573,369 +2573,369 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
+          <t>Rate der (erheblichen) materiellen Deprivation</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
+          <t>(Severe) Material deprivation rate</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=de</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_SIP8__custom_5385803/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>L_EZB_1</t>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Q_EZB</t>
+          <t>Q_EUROPEANCOMMISSION</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN) (nicht auf Deutsch verfügbar)</t>
+          <t>STECF - Berichte (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Household Finance and Consumption Network (HFCN)</t>
+          <t>STECF - Reports</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t/>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
+          <t>https://stecf.jrc.ec.europa.eu/reports/cfp-monitoring_en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>L_FATF_1</t>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Q_FATF</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Ratings Deutschland</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens  - EU-SILC Erhebung - Eurostat-Tabelle  [ilc_di12 ]</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Ratings Germany</t>
+          <t>Gini coefficient of equivalised disposable income - Eurostat table  [ilc_di12c]</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/countries/detail/Germany.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=de&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>https://www.fatf-gafi.org/en/countries/detail/Germany.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_DI12/default/table?lang=en&amp;category=livcon.ilc.ilc_ie.ilc_iei</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Q_FIDAR</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Studie zum WoB-Index</t>
+          <t>Rate der materiellen und sozialen Deprivation - Eurostat-Tabelle [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Study on the WoB Index (only available in German)</t>
+          <t>Material and social deprivation rate - Eurostat table [ilc_mdsd07]</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_mdsd07/default/table?lang=de</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDSD07/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>L_GBE_1</t>
+          <t>L_ERSTT_8</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Rate der erheblichen materiellen Deprivation - Eurostat-Tabelle [ilc_mddd11]</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality</t>
+          <t>Severe material deprivation rate - Eurostat table [ilc_mddd11]</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=de&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/ILC_MDDD11/default/table?lang=en&amp;category=livcon.ilc.ilc_md.ilc_mddd</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>L_GIZ_1</t>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
+          <t>Bevölkerung nach Bildungsabschluss (nur Tertiärbereich) - Eurostat-Tabelle [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Members of the Partnership for Sustainable Textiles</t>
+          <t>Population by educational attainment level (tertiary education only) - Eurostat table [edat_lfs_9912]</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/uebersicht/</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=de</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
+          <t>https://ec.europa.eu/eurostat/databrowser/view/EDAT_LFS_9912__custom_3201014/default/table?lang=en</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>L_IAB_1</t>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Q_IAB</t>
+          <t>Q_EZB</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Household Finance and Consumption Network (HFCN) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
+          <t>Household Finance and Consumption Network (HFCN)</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.ecb.europa.eu/pub/economic-research/research-networks/html/researcher_hfcn.en.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>L_IFEU_1</t>
+          <t>L_FATF_1</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t>Q_FATF</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Ratings Deutschland</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>TREMOD</t>
+          <t>Ratings Germany</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
+          <t>https://www.fatf-gafi.org/en/countries/detail/Germany.html</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
+          <t>https://www.fatf-gafi.org/en/countries/detail/Germany.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_FIDAR</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren allgemein</t>
+          <t>Studie zum WoB-Index</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators general (only available in German)</t>
+          <t>Study on the WoB Index (only available in German)</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
+          <t>https://www.fidar.de/wob-indizes-studien/wob-index-185/studie-zum-wob-index-185.html</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Energieindikatoren: Erneuerbare Energieträger</t>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Energy indicators: Renewable energy sources (only available in German)</t>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=D&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
+          <t>https://www.gbe-bund.de/gbe/!isgbe.indikatoren_set_page?p_uid=gast&amp;p_aid=45213126&amp;p_sprache=e&amp;p_help=2&amp;p_indnr=562&amp;p_ansnr=17979237&amp;p_version=2&amp;p_thema_id=263&amp;p_thema_id2=3600&amp;p_thema_id3=3800&amp;p_thema_id4=3900&amp;D.000=3744&amp;D.001=1000001&amp;D.003=1000004&amp;D.022=9998&amp;D.024=43190&amp;D.011=2961</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_3</t>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Q_LAKEB</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Mitglieder des Bündnises für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
+          <t>Members of the Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.textilbuendnis.com/uebersicht/</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
+          <t>https://www.textilbuendnis.com/en/uebersicht/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_2</t>
+          <t>L_IAB_1</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_IAB</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Flächenverbrauch</t>
+          <t>Daten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Land consumption (only available in German)</t>
+          <t>XXXDaten zur Tarifbindung und betrieblichen Interessenvertretung</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
+          <t>https://iab.de/daten/daten-zur-tarifbindung-und-betrieblichen-interessenvertetung/</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
@@ -2947,155 +2947,155 @@
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>L_LIKI_1</t>
+          <t>L_IFEU_1</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Q_LIKI</t>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater (only available in German)</t>
+          <t>TREMOD</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
+          <t>https://www.ifeu.de/methoden-tools/modelle/tremod/</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.ifeu.de/en/methods-tools/models/tremod/</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_1</t>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
+          <t>Energieindikatoren allgemein</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>OECD - Total flows by donor</t>
+          <t>Energy indicators general (only available in German)</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_2</t>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
+          <t>Energieindikatoren: Erneuerbare Energieträger</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Income distribution database</t>
+          <t>Energy indicators: Renewable energy sources (only available in German)</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i290</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>L_OECD_3</t>
+          <t>L_LAK_3</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>Q_LAKEB</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
+          <t>Anteil Strom aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Flows by donor (ODA + OOF + Private)</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption (only available in German)</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
+          <t>https://www.lak-energiebilanzen.de/eingabe-dynamisch/?a=i200</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_1</t>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Bevölkerung</t>
+          <t>Flächenverbrauch</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Population (only available in German)</t>
+          <t>Land consumption (only available in German)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
+          <t>https://www.liki.nrw.de/ressourcen-und-effizienz/d1-flaechenverbrauch</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
@@ -3107,27 +3107,27 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_2</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_LIKI</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (only available in German)</t>
+          <t>Nitrate in groundwater (only available in German)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t>https://www.liki.nrw.de/umwelt-und-gesundheit/c5-nitrat-im-grundwasser</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
@@ -3139,155 +3139,155 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>L_RDB_3</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>OECD - Gesamtströme nach Geber (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Transport area (only available in German)</t>
+          <t>OECD - Total flows by donor</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
+          <t/>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=TABLE1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>L_SP_1</t>
+          <t>L_OECD_2</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
+          <t>Income distribution database (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
+          <t>Income distribution database</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
+          <t>https://data-explorer.oecd.org/vis?fs[0]=Topic%2C1%7CSociety%23SOC%23%7CInequality%23SOC_INE%23&amp;pg=0&amp;fc=Topic&amp;bp=true&amp;snb=2&amp;lc=en&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_WISE_IDD%40DF_IDD&amp;df[ag]=OECD.WISE.INE&amp;df[vs]=1.0&amp;pd=2008%2C&amp;dq=DEU.A.INC_MRKT_GINI..._T..D_CUR.&amp;to[TIME_PERIOD]=false&amp;ly[rw]=METHODOLOGY%2CUNIT_MEASURE&amp;ly[cl]=TIME_PERIOD&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>L_SP_2</t>
+          <t>L_OECD_3</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
+          <t>Mittelzuflüsse nach Gebern (ODA+OOF+Privat) (nicht auf Deutsch verfügbar) (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
+          <t>Flows by donor (ODA + OOF + Private)</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t/>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
+          <t>https://data-explorer.oecd.org/vis?df[ds]=DisseminateFinalDMZ&amp;df[id]=DSD_DAC1%40DF_DAC1&amp;df[ag]=OECD.DCD.FSD&amp;df[vs]=1.1&amp;pd=%2C&amp;dq=DEU...1140%2B1160..Q%2BV.&amp;ly[rw]=MEASURE&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false&amp;lo=10&amp;lom=LASTNPERIODS&amp;vw=tb</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>L_SP_3</t>
+          <t>L_RDB_1</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen </t>
+          <t>Bevölkerung</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions (only available in German)</t>
+          <t>Population (only available in German)</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t>https://www.regionalstatistik.de/genesis/online?operation=previous&amp;levelindex=0&amp;step=0&amp;titel=Tabellenaufbau&amp;levelid=1668672879939&amp;acceptscookies=false#abreadcrumb</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>L_SP_4</t>
+          <t>L_RDB_2</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquoten</t>
+          <t>Siedlungsfläche</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Employment rates (only available in German)</t>
+          <t>Settlement area (only available in German)</t>
         </is>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-02-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
@@ -3299,27 +3299,27 @@
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>L_SVWS</t>
+          <t>L_RDB_3</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Forschung und Entwicklung in der Wirtschaft</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Research and development in the economy (only available in German)</t>
+          <t>Transport area (only available in German)</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>https://www.stifterverband.org/fue-facts-2022</t>
+          <t>https://www.regionalstatistik.de/genesis//online?operation=table&amp;code=33111-03-01-4&amp;bypass=true&amp;levelindex=1&amp;levelid=1668501420853#abreadcrumb</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
@@ -3331,286 +3331,446 @@
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>L_TI_1</t>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Q_TA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
+          <t>Investitionen, Anlagevermögen (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen der Länder)</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index</t>
+          <t>Investments, fixed assets (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder - only available in German)</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/investitionen-anlagevermoegen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_1</t>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Index der Luftschadstoff-Emissionen</t>
+          <t>Bruttoinlandsprodukt, Bruttowertschöpfung (eigene Berechnung auf Basis der Volkswirtschaftlichen Gesamtrechnungen)</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Index of air pollutant emissions</t>
+          <t>Gross domestic product, gross value added (own calculation based on the Volkswirtschaftliche Gesamtrechnungen der Länder  - only available in German)</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
+          <t>https://www.statistikportal.de/de/vgrdl/ergebnisse-laenderebene/bruttoinlandsprodukt-bruttowertschoepfung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_2</t>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Q_UBALAWA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Flüssen durch Phosphor</t>
+          <t>Treibhausgasemissionen </t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>River eutrophication by phosphorus</t>
+          <t>Greenhouse gas emissions (only available in German)</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
+          <t>https://www.statistikportal.de/de/ugrdl/ergebnisse/gase#alle-ergebnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_3</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Erwerbstätigenquoten</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Employment rates (only available in German)</t>
         </is>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+          <t>https://www.statistikportal.de/de/nachhaltigkeit/ergebnisse/ziel-8-menschenwuerdige-arbeit-und-wirtschaftswachstum</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+          <t>Forschung und Entwicklung in der Wirtschaft</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Weighted market shares by sales of products with official eco-labels</t>
+          <t>Research and development in the economy (only available in German)</t>
         </is>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+          <t>https://www.stifterverband.org/fue-facts-2022</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_5</t>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_TA</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+          <t>Corruption Perceptions Index (nicht auf Deutsch verfügbar)</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+          <t>https://www.transparency.org/en/cpi/2020/index/nzl</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_6</t>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA_1</t>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+          <t>Index der Luftschadstoff-Emissionen</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+          <t>Index of air pollutant emissions</t>
         </is>
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+          <t>https://www.umweltbundesamt.de/bild/index-der-luftschadstoff-emissionen</t>
         </is>
       </c>
       <c r="F96" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+          <t>https://www.umweltbundesamt.de/en/image/index-of-air-pollutant-emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_7</t>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Q_UBA</t>
+          <t>Q_UBALAWA</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+          <t>Eutrophierung von Flüssen durch Phosphor</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+          <t>River eutrophication by phosphorus</t>
         </is>
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-von-fluessen-durch-phosphor</t>
         </is>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
-          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-river-eutrophication-phosphorus</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
+          <t>L_UBA_3</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-nitrat-im-grundwasser</t>
+        </is>
+      </c>
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrate-in-groundwater</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_4</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteile von Produkten mit staatlichen Umweltzeichen, nach Umsätzen gewichtet</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>Weighted market shares by sales of products with official eco-labels</t>
+        </is>
+      </c>
+      <c r="E99" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-umweltfreundlicher-konsum</t>
+        </is>
+      </c>
+      <c r="F99" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/indicator-environmentally-friendly-consumption</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_5</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>Emission der von der UN-Klimarahmenkonvention abgedeckten Treibhausgase</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>Emission of greenhouse gases covered by the UN Framework Convention on Climate</t>
+        </is>
+      </c>
+      <c r="E100" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-emission-von-treibhausgasen</t>
+        </is>
+      </c>
+      <c r="F100" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-greenhouse-gas-emissions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_6</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA_1</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung von Nord- und Ostsee durch Stickstoff</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of the North Sea / Baltic Sea by nitrogen</t>
+        </is>
+      </c>
+      <c r="E101" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-der-meere</t>
+        </is>
+      </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-eutrophication-of-the-north-sea-baltic-sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>L_UBA_7</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>Q_UBA</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Fläche empfindlicher Land-Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of vulnerable ecosystems where critical loads for eutrophication are exceeded</t>
+        </is>
+      </c>
+      <c r="E102" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/daten/umweltindikatoren/indikator-eutrophierung-durch-stickstoff</t>
+        </is>
+      </c>
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>https://www.umweltbundesamt.de/en/data/environmental-indicators/indicator-nitrogen-eutrophication</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
           <t>L_UBA_8</t>
         </is>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="B103" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="C98" s="4" t="inlineStr">
+      <c r="C103" s="4" t="inlineStr">
         <is>
           <t>Erneuerbare Energien in Zahlen</t>
         </is>
       </c>
-      <c r="D98" s="4" t="inlineStr">
+      <c r="D103" s="4" t="inlineStr">
         <is>
           <t>Renewable energies in figures</t>
         </is>
       </c>
-      <c r="E98" s="5" t="inlineStr">
+      <c r="E103" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/themen/klima-energie/erneuerbare-energien/erneuerbare-energien-in-zahlen</t>
         </is>
       </c>
-      <c r="F98" s="5" t="inlineStr">
+      <c r="F103" s="5" t="inlineStr">
         <is>
           <t>https://www.umweltbundesamt.de/en/topics/climate-energy/renewable-energies/renewable-energies-in-figures</t>
         </is>
